--- a/cypress/downloads/DashboardTaxas.xlsx
+++ b/cypress/downloads/DashboardTaxas.xlsx
@@ -166,11 +166,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="22.57" min="1" max="1" customWidth="1"/>
-    <col width="22.57" min="2" max="2" customWidth="1"/>
-    <col width="22.57" min="3" max="3" customWidth="1"/>
-    <col width="22.57" min="4" max="4" customWidth="1"/>
-    <col width="22.57" min="5" max="5" customWidth="1"/>
+    <col width="22.71" min="1" max="1" customWidth="1"/>
+    <col width="22.71" min="2" max="2" customWidth="1"/>
+    <col width="22.71" min="3" max="3" customWidth="1"/>
+    <col width="22.71" min="4" max="4" customWidth="1"/>
+    <col width="22.71" min="5" max="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">

--- a/cypress/downloads/DashboardTaxas.xlsx
+++ b/cypress/downloads/DashboardTaxas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Modalidade</t>
   </si>
@@ -32,7 +32,49 @@
     <t>Vendas(%)</t>
   </si>
   <si>
+    <t>Benefício</t>
+  </si>
+  <si>
+    <t>TICKET ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>TICKET REFEICAO</t>
+  </si>
+  <si>
+    <t>SODEXO REFEICAO</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Green Card Débito</t>
+  </si>
+  <si>
+    <t>CABAL VOUCHER</t>
+  </si>
+  <si>
+    <t>VR REFEICAO</t>
+  </si>
+  <si>
+    <t>Valecard Voucher</t>
+  </si>
+  <si>
+    <t>Crédito a Vista</t>
+  </si>
+  <si>
+    <t>Comprocard Crédito</t>
+  </si>
+  <si>
+    <t>Ticket Flex</t>
+  </si>
+  <si>
+    <t>UpBrasil Convênio</t>
+  </si>
+  <si>
     <t>0,00</t>
+  </si>
+  <si>
+    <t>127.811,42</t>
   </si>
 </sst>
 </file>
@@ -124,11 +166,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="23" min="1" max="1" customWidth="1"/>
-    <col width="23" min="2" max="2" customWidth="1"/>
-    <col width="23" min="3" max="3" customWidth="1"/>
-    <col width="23" min="4" max="4" customWidth="1"/>
-    <col width="23" min="5" max="5" customWidth="1"/>
+    <col width="22.71" min="1" max="1" customWidth="1"/>
+    <col width="22.71" min="2" max="2" customWidth="1"/>
+    <col width="22.71" min="3" max="3" customWidth="1"/>
+    <col width="22.71" min="4" max="4" customWidth="1"/>
+    <col width="22.71" min="5" max="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -149,19 +191,189 @@
       </c>
     </row>
     <row r="2" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2036.15</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.01593089256030486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>760.69</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.005951659092747737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>84.97</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.0006648075735329441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>145.29</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.0011367528817065016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>159.31</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0012464457401380879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>291.99</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.0022845376414721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>118724.29</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9289020495977589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2443.08</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.019114723864268154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2730.99</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.021367339475611802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>434.66</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.003400791572458862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/DashboardTaxas.xlsx
+++ b/cypress/downloads/DashboardTaxas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Modalidade</t>
   </si>
@@ -32,7 +32,49 @@
     <t>Vendas(%)</t>
   </si>
   <si>
+    <t>Benefício</t>
+  </si>
+  <si>
+    <t>TICKET ALIMENTACAO</t>
+  </si>
+  <si>
+    <t>TICKET REFEICAO</t>
+  </si>
+  <si>
+    <t>SODEXO REFEICAO</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Green Card Débito</t>
+  </si>
+  <si>
+    <t>CABAL VOUCHER</t>
+  </si>
+  <si>
+    <t>VR REFEICAO</t>
+  </si>
+  <si>
+    <t>Valecard Voucher</t>
+  </si>
+  <si>
+    <t>Crédito a Vista</t>
+  </si>
+  <si>
+    <t>Comprocard Crédito</t>
+  </si>
+  <si>
+    <t>Ticket Flex</t>
+  </si>
+  <si>
+    <t>UpBrasil Convênio</t>
+  </si>
+  <si>
     <t>0,00</t>
+  </si>
+  <si>
+    <t>127.811,42</t>
   </si>
 </sst>
 </file>
@@ -124,11 +166,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="22.86" min="1" max="1" customWidth="1"/>
-    <col width="22.86" min="2" max="2" customWidth="1"/>
-    <col width="22.86" min="3" max="3" customWidth="1"/>
-    <col width="22.86" min="4" max="4" customWidth="1"/>
-    <col width="22.86" min="5" max="5" customWidth="1"/>
+    <col width="22.71" min="1" max="1" customWidth="1"/>
+    <col width="22.71" min="2" max="2" customWidth="1"/>
+    <col width="22.71" min="3" max="3" customWidth="1"/>
+    <col width="22.71" min="4" max="4" customWidth="1"/>
+    <col width="22.71" min="5" max="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -149,19 +191,189 @@
       </c>
     </row>
     <row r="2" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>2036.15</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.01593089256030486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>760.69</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.005951659092747737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>84.97</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.0006648075735329441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>145.29</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.0011367528817065016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>159.31</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0012464457401380879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>291.99</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.0022845376414721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>118724.29</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9289020495977589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2443.08</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.019114723864268154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2730.99</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.021367339475611802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>434.66</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.003400791572458862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>